--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,145 +40,163 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -539,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -658,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -708,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,16 +797,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8484848484848485</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7894736842105263</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,31 +944,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>0.6551724137931034</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>50</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8125</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.6551724137931034</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,7 +1026,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1026,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.6296296296296297</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6231884057971014</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5882352941176471</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.3636363636363636</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L14">
         <v>15</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
       <c r="M14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,16 +1247,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3541666666666667</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5531914893617021</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.2542372881355932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.55</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2340619307832423</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L17">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>841</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,16 +1397,16 @@
         <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.1408450704225352</v>
+        <v>0.2431693989071038</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>61</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>0.2033898305084746</v>
+      </c>
+      <c r="L19">
         <v>12</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>0.03084415584415584</v>
-      </c>
-      <c r="L19">
-        <v>19</v>
-      </c>
       <c r="M19">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>597</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,38 +1476,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>0.1967213114754098</v>
+      </c>
+      <c r="L20">
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>11</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.02710843373493976</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>646</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4358974358974359</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.02639296187683285</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>332</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3928571428571428</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.02037037037037037</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>529</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3571428571428572</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.01612903225806452</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1650,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1708</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1658,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3214285714285715</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1676,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.01408450704225352</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1700,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>770</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1708,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1666666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1726,7 +1744,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.0301659125188537</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="N25">
+        <v>0.95</v>
+      </c>
+      <c r="O25">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1734,25 +1776,175 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04040404040404041</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>285</v>
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.02432778489116517</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.0184331797235023</v>
+      </c>
+      <c r="L27">
+        <v>32</v>
+      </c>
+      <c r="M27">
+        <v>32</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>65</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.01785714285714286</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.05369127516778523</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0.06</v>
+      </c>
+      <c r="F29">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
